--- a/src/test/resources/SalesReport.xlsx
+++ b/src/test/resources/SalesReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23145" windowHeight="9675" activeTab="1"/>
+    <workbookView windowWidth="23145" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="核心功能与嵌套" sheetId="1" r:id="rId1"/>
@@ -826,7 +826,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -844,9 +844,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常規" xfId="0" builtinId="0"/>
@@ -1168,8 +1165,8 @@
   <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="7"/>
@@ -1277,10 +1274,10 @@
       <c r="A7" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="9"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
@@ -1312,7 +1309,7 @@
   <sheetPr/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
